--- a/Web/Content/example/CarMachineAndCardBindExample.xlsx
+++ b/Web/Content/example/CarMachineAndCardBindExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SourceCode\DotNet\iRentV20API\iRentV20API\Web\Content\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SourceCode\DotNet\999\iRentV20API\Web\Content\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAC9F3D-64BA-4801-BF5C-49796C10F37C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634084DF-31D1-4B4C-A4D0-9F3DA9C64733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62565" yWindow="20430" windowWidth="14400" windowHeight="7665" xr2:uid="{3E8B0A99-5A00-4DD6-953C-F118259822DF}"/>
+    <workbookView xWindow="13340" yWindow="8870" windowWidth="14810" windowHeight="15650" xr2:uid="{3E8B0A99-5A00-4DD6-953C-F118259822DF}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>車機編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,14 +129,30 @@
     <t>C040</t>
   </si>
   <si>
-    <t>deviceToken</t>
+    <t>pVYy1g9bxZoI2PHD1AgC</t>
+  </si>
+  <si>
+    <t>a6iucnGUcjtwUCxxJ32s</t>
+  </si>
+  <si>
+    <t>DEVICETOKEN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pVYy1g9bxZoI2PHD1AgC</t>
-  </si>
-  <si>
-    <t>a6iucnGUcjtwUCxxJ32s</t>
+    <t>存放地點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -540,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11663217-74A2-41CC-8643-999E582728DE}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -554,7 +570,7 @@
     <col min="4" max="4" width="27.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,10 +581,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,10 +598,13 @@
         <v>8.9886013157800903E+19</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,10 +615,13 @@
         <v>8.9886013157800903E+19</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -606,8 +631,11 @@
       <c r="C4" s="3">
         <v>8.9886013157800903E+19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -618,7 +646,7 @@
         <v>8.9886013157800903E+19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -629,7 +657,7 @@
         <v>8.9886013157800903E+19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -640,7 +668,7 @@
         <v>8.9886013157800903E+19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -651,7 +679,7 @@
         <v>8.9886013157800903E+19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -662,7 +690,7 @@
         <v>8.9886013157800903E+19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -673,7 +701,7 @@
         <v>8.9886013157800903E+19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -684,7 +712,7 @@
         <v>8.9886013157800903E+19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -695,7 +723,7 @@
         <v>8.9886013157800903E+19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -706,7 +734,7 @@
         <v>8.9886013157800903E+19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -717,7 +745,7 @@
         <v>8.9886013157800903E+19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -728,7 +756,7 @@
         <v>8.9886013157800903E+19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
